--- a/RPAStudio/RPAStudio/Localization/xStaticStrings.xlsx
+++ b/RPAStudio/RPAStudio/Localization/xStaticStrings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperFly\source\repos\rpa-ai\RPAStudio\RPAStudio\RPAStudio\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB392182-8CAE-468E-A05C-938B9FE61BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC6C6A4-DB64-4E5D-A81E-E0460E839F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4230" yWindow="3030" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="270">
   <si>
     <t>活动</t>
   </si>
@@ -34,9 +34,6 @@
     <t>属性</t>
   </si>
   <si>
-    <t>Attributes</t>
-  </si>
-  <si>
     <t>代码片断</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
   </si>
   <si>
     <t>大纲</t>
-  </si>
-  <si>
-    <t>アウトライン</t>
   </si>
   <si>
     <t>Outline</t>
@@ -140,10 +134,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>输出</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -183,10 +173,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>新建文件夹</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>新規フォルダ</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
@@ -198,10 +184,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>NewFolderTitle</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>确定</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -230,29 +212,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>项</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>目</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>包管理器</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -292,33 +251,6 @@
   </si>
   <si>
     <t>ReleaseContent</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>布</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>发布项目</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -334,10 +266,6 @@
     <rPh sb="7" eb="9">
       <t>コウカイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>此处输入要搜索的内容</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -359,10 +287,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>包含预发布版本</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>プレリリース版を含む</t>
     <rPh sb="6" eb="7">
       <t>バン</t>
@@ -404,49 +328,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>项</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>设</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>置</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>プロジェクト設定</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -455,10 +336,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>修改项目相关配置如名称和描述</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Modify project related configuration such as name and description</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -496,10 +373,6 @@
   </si>
   <si>
     <t>Original name :</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>目标名：</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -537,10 +410,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>发布位置</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Release location</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -550,10 +419,6 @@
   </si>
   <si>
     <t>ReleaseLocationText</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>发布到</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -588,10 +453,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>自定义</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>CustomContent</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -604,10 +465,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>自定义位置</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>CustomPathText</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -617,10 +474,6 @@
   </si>
   <si>
     <t>Custom path</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>发布说明</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -710,10 +563,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>打开项目所在目录</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>プロジェクトディレクトリを開く</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -726,19 +575,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>打开项目</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>プロジェクトを開く</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Open the project</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>添加到收藏夹</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -762,12 +603,1493 @@
     <t>AddToFavorites</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>OpenProjectDialog</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ワークフロープロジェクトファイル|project.json|ワークフローファイル|*.xaml</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>WorkflowProjectFile|project.json|WorkflowFile|*.xaml</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロジェクト構成ファイルproject.jsonのコンテンツの形式が正しくありません</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>jsonFormatError</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>The content of the project configuration file project.json is incorrectly formatted</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エラー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Error</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ErrorText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ProjectOpenError</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Error opening project!</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロジェクトオープンエラー！</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Workflow verification is correct</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ワークフローの検証は正常です</t>
+    <rPh sb="7" eb="9">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>WorkflowVerificationOK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>WorkflowCheckError</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ワークフローチェックエラー。パラメータ設定を確認してください</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Workflow check error, please check parameter configuration</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Runtime error</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RuntimeError</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行時エラー</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロパティ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Property</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>添加到收藏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夹</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>自定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>义</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>自定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位置</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>预发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布版本</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目配置文件project.json的内容格式不正确</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>新建文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夹</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>打开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>工作流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目文件|project.json|工作流文件|*.xaml</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>打开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目所在目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>打开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>错</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目相关配置如名称和描述</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>置</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布位置</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布到</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时执</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名：</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>工作流校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>验错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请检</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参数配置</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>工作流校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正确</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>お気に入りから削除</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Remove from favorites</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RemoveFromFavorites</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ShowFavorites</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>お気に入りを表示</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Show recent</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ShowRecent</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Show available</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ShowAvailable</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>利用可能を表示</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>開く</t>
+    <rPh sb="0" eb="1">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OpenText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移除</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DeleteText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロジェクトフォルダーを開く</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Open project folder</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OpenProjectFolder</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>从收藏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移除</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>示收藏</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Show favorites</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最近を表示</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>示最近</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>示可用</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>打开</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>打开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夹</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Remove</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RemoveText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>删</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>除</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>New folder...</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新しいフォルダー…</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ワークフローのインポート…</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NewFolderDot</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ImportWorkflowDot</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>新建文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Import workflow…</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Run</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RunText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>运行</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メインファイルとして設定</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SetAsMainFile</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主文件</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Set as main file</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メッセージの詳細を表示する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Show details</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ShowDetails</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看消息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>详</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>情</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CopyCtrlC</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>复制（Ctrl+C）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コピー（Ctrl+C）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Copy（Ctrl+C）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Message_SaveConfirm</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>文件有修改，需要保存文件\"{0}\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>The file has been modified. Do you need to save the file \"{0}\"?</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイルが変更されました。ファイル\"{0}\"を保存しますか？</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>询问</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ConfirmText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NewFolderTitle</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入要搜索的内容</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>导入工作流…</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Settings</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SettingsText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>设置包源地址</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設定パケットの送信元アドレス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Set the packet source address</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SetFromAddress</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>项目依赖包</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Project dependencies</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロジェクトの依存関係</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ProjectDependencies</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>查看当前项目的所有依赖包</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在のプロジェクトのすべての依存関係を表示する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>View all dependencies of the current project</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ViewAllDependencies</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>所有包</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>すべてのパッケージ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>All Packages</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AllPackages</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>从所有的包源地址来查看或搜索包</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>View or search packets from all packet source addresses</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>すべてのパケット送信元アドレスからのパケットの表示または検索</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AllPackagesTip</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +2119,46 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
@@ -807,20 +2169,6 @@
       <name val="Microsoft YaHei"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -869,18 +2217,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1185,32 +2536,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="25.875" customWidth="1"/>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="31.75" customWidth="1"/>
+    <col min="3" max="4" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1223,744 +2576,976 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B56" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D56" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="1" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B64" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C65" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D65" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    </row>
+    <row r="66" spans="1:4" ht="29.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="1"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="1"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
@@ -1969,10 +3554,10 @@
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
@@ -2245,7 +3830,7 @@
       <c r="D123" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D68">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="3"/>

--- a/RPAStudio/RPAStudio/Localization/xStaticStrings.xlsx
+++ b/RPAStudio/RPAStudio/Localization/xStaticStrings.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperFly\source\repos\rpa-ai\RPAStudio\RPAStudio\RPAStudio\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aww083028\source\repos\maruyama.tatsuo\RPAStudio\RPAStudio\RPAStudio\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC6C6A4-DB64-4E5D-A81E-E0460E839F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="3030" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="3030" windowWidth="21600" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="304">
   <si>
     <t>活动</t>
   </si>
@@ -2084,11 +2083,491 @@
     <t>AllPackagesTip</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>已安装</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>インストール済み</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Installed</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>InstalledText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Uninstall</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アンインストール</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UninstallText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>卸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>载</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>VersionOnly</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Update</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UpdateText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>InstallationText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>インストール</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Installation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>规则</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Operating rules</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>運用ルール</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OperatingRule</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>すでに実行されています。多重起動はできません。</t>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タジュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>The program is already running</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Error_AlreadyRunning</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程序已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行，不能重复运行！</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>程序运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程中出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了异常，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>商！</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>An exception occurred during the program operation, please contact the software developer!</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プログラム操作中に例外が発生しました。ソフトウェア開発者に連絡してください！</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Error_CallDeveloper</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プログラムの実行中に重大なエラーが発生し、終了しようとしています。ソフトウェア開発者に連絡してください。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>A serious error occurred during the running of the program, and it is about to quit. Please contact the software developer!</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Error_Critical_Exit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>程序运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程中出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>严</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，即将退出，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>商！</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2217,7 +2696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2231,6 +2710,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2533,11 +3015,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3500,58 +3982,130 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="A69" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="A70" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="A75" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+      <c r="A76" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="A77" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
@@ -3830,7 +4384,7 @@
       <c r="D123" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D68">
+  <sortState ref="A2:D68">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="3"/>
